--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
@@ -540,10 +540,10 @@
         <v>0.592741</v>
       </c>
       <c r="I2">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="J2">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>2.888383952207556</v>
+        <v>2.829722021940333</v>
       </c>
       <c r="R2">
-        <v>25.995455569868</v>
+        <v>25.467498197463</v>
       </c>
       <c r="S2">
-        <v>0.170091233838087</v>
+        <v>0.1635283439259558</v>
       </c>
       <c r="T2">
-        <v>0.170091233838087</v>
+        <v>0.1635283439259558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.592741</v>
       </c>
       <c r="I3">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="J3">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
-        <v>5.351299139076333</v>
+        <v>5.351299139076334</v>
       </c>
       <c r="R3">
-        <v>48.16169225168699</v>
+        <v>48.161692251687</v>
       </c>
       <c r="S3">
-        <v>0.3151274512886435</v>
+        <v>0.3092491344663952</v>
       </c>
       <c r="T3">
-        <v>0.3151274512886435</v>
+        <v>0.3092491344663952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.592741</v>
       </c>
       <c r="I4">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="J4">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>2.607363665884556</v>
+        <v>1.412657957323444</v>
       </c>
       <c r="R4">
-        <v>23.466272992961</v>
+        <v>12.713921615911</v>
       </c>
       <c r="S4">
-        <v>0.1535425034666697</v>
+        <v>0.0816368584983919</v>
       </c>
       <c r="T4">
-        <v>0.1535425034666697</v>
+        <v>0.08163685849839189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1117376666666667</v>
+        <v>0.1587963333333333</v>
       </c>
       <c r="H5">
-        <v>0.335213</v>
+        <v>0.476389</v>
       </c>
       <c r="I5">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="J5">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N5">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q5">
-        <v>1.633468664680445</v>
+        <v>2.274262189236333</v>
       </c>
       <c r="R5">
-        <v>14.701217982124</v>
+        <v>20.468359703127</v>
       </c>
       <c r="S5">
-        <v>0.09619174777612255</v>
+        <v>0.1314285737523508</v>
       </c>
       <c r="T5">
-        <v>0.09619174777612255</v>
+        <v>0.1314285737523508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1117376666666667</v>
+        <v>0.1587963333333333</v>
       </c>
       <c r="H6">
-        <v>0.335213</v>
+        <v>0.476389</v>
       </c>
       <c r="I6">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="J6">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q6">
-        <v>3.026321847665667</v>
+        <v>4.300866728580334</v>
       </c>
       <c r="R6">
-        <v>27.236896628991</v>
+        <v>38.707800557223</v>
       </c>
       <c r="S6">
-        <v>0.1782141244300969</v>
+        <v>0.2485451249691038</v>
       </c>
       <c r="T6">
-        <v>0.1782141244300969</v>
+        <v>0.2485451249691038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1117376666666667</v>
+        <v>0.1587963333333333</v>
       </c>
       <c r="H7">
-        <v>0.335213</v>
+        <v>0.476389</v>
       </c>
       <c r="I7">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="J7">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N7">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q7">
-        <v>1.474543175741445</v>
+        <v>1.135360489035445</v>
       </c>
       <c r="R7">
-        <v>13.270888581673</v>
+        <v>10.218244401319</v>
       </c>
       <c r="S7">
-        <v>0.08683293920038052</v>
+        <v>0.06561196438780247</v>
       </c>
       <c r="T7">
-        <v>0.08683293920038052</v>
+        <v>0.06561196438780247</v>
       </c>
     </row>
   </sheetData>
